--- a/DataGovernance/sneakerpark-templates.xlsx
+++ b/DataGovernance/sneakerpark-templates.xlsx
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="220">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -448,6 +448,9 @@
     <t xml:space="preserve">Phone</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">contactreason</t>
   </si>
   <si>
@@ -988,7 +991,7 @@
     <t xml:space="preserve">Some records have NULL values for the shoe type</t>
   </si>
   <si>
-    <t xml:space="preserve">Sandals or Flip Flops </t>
+    <t xml:space="preserve">listingid = 922399</t>
   </si>
   <si>
     <t xml:space="preserve">Add NOT NULL constraint to column</t>
@@ -1003,10 +1006,16 @@
     <t xml:space="preserve">Some records have NULL values for the shoe brand</t>
   </si>
   <si>
+    <t xml:space="preserve">listingid = 780627</t>
+  </si>
+  <si>
     <t xml:space="preserve">All listed shoes must have a brand</t>
   </si>
   <si>
     <t xml:space="preserve">Some records have NULL values for the shoe color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listingid = 942361</t>
   </si>
   <si>
     <t xml:space="preserve">All listed shoes must have a color</t>
@@ -1320,11 +1329,11 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C25" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.47"/>
@@ -1382,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1416,10 +1425,14 @@
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -1442,10 +1455,10 @@
         <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>19</v>
@@ -1453,10 +1466,14 @@
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1479,10 +1496,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>19</v>
@@ -1490,10 +1507,14 @@
       <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -1516,10 +1537,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>19</v>
@@ -1527,10 +1548,14 @@
       <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1541,10 +1566,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -1553,7 +1578,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>822950</v>
@@ -1564,10 +1589,14 @@
       <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1607,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -1590,10 +1619,10 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>19</v>
@@ -1601,10 +1630,14 @@
       <c r="K7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1615,10 +1648,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -1627,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>12802</v>
@@ -1638,10 +1671,14 @@
       <c r="K8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1652,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -1664,10 +1701,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>19</v>
@@ -1675,10 +1712,14 @@
       <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -1701,10 +1742,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>19</v>
@@ -1712,10 +1753,14 @@
       <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1726,10 +1771,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>18</v>
@@ -1738,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>3586</v>
@@ -1749,24 +1794,28 @@
       <c r="K11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -1775,7 +1824,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>44103</v>
@@ -1786,21 +1835,25 @@
       <c r="K12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1812,10 +1865,10 @@
         <v>19</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>19</v>
@@ -1823,21 +1876,25 @@
       <c r="K13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -1849,10 +1906,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>19</v>
@@ -1860,21 +1917,25 @@
       <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
@@ -1886,10 +1947,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>19</v>
@@ -1897,24 +1958,28 @@
       <c r="K15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
@@ -1923,7 +1988,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>2333</v>
@@ -1934,21 +1999,25 @@
       <c r="K16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
@@ -1960,10 +2029,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>19</v>
@@ -1971,21 +2040,25 @@
       <c r="K17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1997,10 +2070,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>19</v>
@@ -2008,24 +2081,28 @@
       <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>18</v>
@@ -2034,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>99900</v>
@@ -2045,21 +2122,25 @@
       <c r="K19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -2071,10 +2152,10 @@
         <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
@@ -2082,21 +2163,25 @@
       <c r="K20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
@@ -2108,7 +2193,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>14</v>
@@ -2119,21 +2204,25 @@
       <c r="K21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -2145,10 +2234,10 @@
         <v>19</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>19</v>
@@ -2156,21 +2245,25 @@
       <c r="K22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>17</v>
@@ -2182,10 +2275,10 @@
         <v>19</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>19</v>
@@ -2193,21 +2286,25 @@
       <c r="K23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -2219,10 +2316,10 @@
         <v>19</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>19</v>
@@ -2230,21 +2327,25 @@
       <c r="K24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>17</v>
@@ -2256,10 +2357,10 @@
         <v>19</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>19</v>
@@ -2267,61 +2368,69 @@
       <c r="K25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>18</v>
@@ -2330,7 +2439,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>44110</v>
@@ -2341,24 +2450,28 @@
       <c r="K27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>19</v>
@@ -2367,7 +2480,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>44195</v>
@@ -2378,24 +2491,28 @@
       <c r="K28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>18</v>
@@ -2404,7 +2521,7 @@
         <v>18</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" s="3" t="n">
         <v>922399</v>
@@ -2415,24 +2532,28 @@
       <c r="K29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
@@ -2441,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>52</v>
@@ -2452,21 +2573,25 @@
       <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
@@ -2478,10 +2603,10 @@
         <v>19</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>19</v>
@@ -2489,24 +2614,28 @@
       <c r="K31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
@@ -2515,7 +2644,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>509</v>
@@ -2526,24 +2655,28 @@
       <c r="K32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>18</v>
@@ -2552,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" s="3" t="n">
         <v>25516</v>
@@ -2563,21 +2696,25 @@
       <c r="K33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>17</v>
@@ -2589,10 +2726,10 @@
         <v>19</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>19</v>
@@ -2600,21 +2737,25 @@
       <c r="K34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>17</v>
@@ -2626,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="3" t="n">
         <v>12</v>
@@ -2637,24 +2778,28 @@
       <c r="K35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
@@ -2663,7 +2808,7 @@
         <v>18</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>998839</v>
@@ -2674,24 +2819,28 @@
       <c r="K36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>19</v>
@@ -2700,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="3" t="n">
         <v>45</v>
@@ -2711,24 +2860,28 @@
       <c r="K37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
@@ -2737,7 +2890,7 @@
         <v>18</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>29626</v>
@@ -2748,24 +2901,28 @@
       <c r="K38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>18</v>
@@ -2774,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I39" s="3" t="n">
         <v>7708</v>
@@ -2785,24 +2942,28 @@
       <c r="K39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
@@ -2811,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>79220</v>
@@ -2822,24 +2983,28 @@
       <c r="K40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>18</v>
@@ -2848,7 +3013,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="6" t="n">
         <v>44169.4612268519</v>
@@ -2859,24 +3024,28 @@
       <c r="K41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
@@ -2885,7 +3054,7 @@
         <v>18</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>29692</v>
@@ -2896,21 +3065,25 @@
       <c r="K42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -2922,10 +3095,10 @@
         <v>19</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>19</v>
@@ -2933,24 +3106,28 @@
       <c r="K43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>18</v>
@@ -2959,7 +3136,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>15.8</v>
@@ -2970,21 +3147,25 @@
       <c r="K44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>17</v>
@@ -2996,7 +3177,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I45" s="3" t="n">
         <v>54601</v>
@@ -3007,21 +3188,25 @@
       <c r="K45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
@@ -3033,10 +3218,10 @@
         <v>19</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>19</v>
@@ -3044,24 +3229,28 @@
       <c r="K46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>18</v>
@@ -3070,7 +3259,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I47" s="3" t="n">
         <v>9</v>
@@ -3081,24 +3270,28 @@
       <c r="K47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
@@ -3107,7 +3300,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>0</v>
@@ -3118,21 +3311,25 @@
       <c r="K48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>17</v>
@@ -3144,10 +3341,10 @@
         <v>19</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>19</v>
@@ -3155,24 +3352,28 @@
       <c r="K49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>18</v>
@@ -3181,7 +3382,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>427</v>
@@ -3193,27 +3394,27 @@
         <v>18</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>18</v>
@@ -3222,7 +3423,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I51" s="5" t="n">
         <v>44144</v>
@@ -3233,24 +3434,28 @@
       <c r="K51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>18</v>
@@ -3259,7 +3464,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>797095</v>
@@ -3270,21 +3475,25 @@
       <c r="K52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>17</v>
@@ -3296,10 +3505,10 @@
         <v>19</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>19</v>
@@ -3307,21 +3516,25 @@
       <c r="K53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>17</v>
@@ -3333,10 +3546,10 @@
         <v>19</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>19</v>
@@ -3344,21 +3557,25 @@
       <c r="K54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>17</v>
@@ -3370,10 +3587,10 @@
         <v>19</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>19</v>
@@ -3381,21 +3598,25 @@
       <c r="K55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>17</v>
@@ -3407,10 +3628,10 @@
         <v>19</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>19</v>
@@ -3418,21 +3639,25 @@
       <c r="K56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>17</v>
@@ -3444,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>19</v>
@@ -3455,24 +3680,28 @@
       <c r="K57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>18</v>
@@ -3481,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>80527</v>
@@ -3492,21 +3721,25 @@
       <c r="K58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>17</v>
@@ -3518,7 +3751,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I59" s="3" t="n">
         <v>13835</v>
@@ -3529,24 +3762,28 @@
       <c r="K59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
@@ -3555,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I60" s="4" t="n">
         <v>45231</v>
@@ -3566,24 +3803,28 @@
       <c r="K60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>18</v>
@@ -3592,7 +3833,7 @@
         <v>18</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I61" s="3" t="n">
         <v>9467</v>
@@ -3603,21 +3844,25 @@
       <c r="K61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>17</v>
@@ -3629,7 +3874,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>99658816711200</v>
@@ -3640,24 +3885,28 @@
       <c r="K62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>18</v>
@@ -3666,7 +3915,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" s="3" t="n">
         <v>96342</v>
@@ -3678,13 +3927,13 @@
         <v>18</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3699,7 +3948,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3714,7 +3963,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3729,7 +3978,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3744,7 +3993,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3759,7 +4008,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3774,7 +4023,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3789,7 +4038,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3804,7 +4053,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3819,7 +4068,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3834,7 +4083,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3849,7 +4098,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3864,7 +4113,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3879,7 +4128,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3894,7 +4143,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3909,7 +4158,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3924,7 +4173,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3939,7 +4188,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3954,7 +4203,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3969,7 +4218,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3984,7 +4233,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3999,7 +4248,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4014,7 +4263,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4029,7 +4278,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4044,7 +4293,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4059,7 +4308,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4074,7 +4323,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4089,7 +4338,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4104,7 +4353,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4119,7 +4368,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4134,7 +4383,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4149,7 +4398,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4164,7 +4413,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4179,7 +4428,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4194,7 +4443,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4209,7 +4458,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4224,7 +4473,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4239,7 +4488,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4254,7 +4503,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4269,7 +4518,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4284,7 +4533,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4299,7 +4548,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4314,7 +4563,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4329,7 +4578,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4344,7 +4593,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4359,7 +4608,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4374,7 +4623,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4389,7 +4638,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4404,7 +4653,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4419,7 +4668,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4434,7 +4683,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4449,7 +4698,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4464,7 +4713,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4479,7 +4728,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4494,7 +4743,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4509,7 +4758,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -8452,78 +8701,78 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8531,119 +8780,119 @@
         <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12538,18 +12787,18 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="57.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="45.34"/>
@@ -12558,162 +12807,160 @@
   <sheetData>
     <row r="1" s="15" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>206</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="18" t="n">
-        <v>11111111111</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
